--- a/statistiche/bpic11XGBoostCounterfactualsWithMax_5/1129.xlsx
+++ b/statistiche/bpic11XGBoostCounterfactualsWithMax_5/1129.xlsx
@@ -458,967 +458,967 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>387070A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>378216A</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>370737C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>370489S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AC380077</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AC10207</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AC613000</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>AC370606</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>370407C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AC386002</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AC370442</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>370707S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AC355401</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>376480A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>376482S</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AC410500</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>AC370716</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>377498A</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AC378458</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>370111S</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>377121S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AC372441</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AC378858</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AC612000</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>370505A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>AC370423</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>AC375075</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370129</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>AC372417</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AC370415</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>AC359999</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AC370443</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AC370403</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>370701S</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>339988E</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>AC337105</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>AC378607</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>370403S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AC379999</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370416</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>376487.0</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>AC355111</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>339099B</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>370737Z</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AC709999</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>370488S</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>AC387070</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>AC378449</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>370136A</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>370421S</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>372417S</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>337190C</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370440</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>339995C</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>370488J</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>AC386041</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>379000A</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>AC389190</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>370401S</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>AC710290</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>375003A</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>AC370421</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>AC372439</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>378858S</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>AC356132</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC355409</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AC370116</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AC410100</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AC413489</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AC411100</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337441</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>AC413461</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>389073.0</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>AC610001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>302282.0</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>370828A</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>AC387001</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>AC389102</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>AC388130</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>AC386001</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>AC355427</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>370401C</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>372440A</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>330001B</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370424</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>AC370711</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>378452S</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>370737S</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>AC10107</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>376400.0</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AC370419</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC378546</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>370407.0</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>AC614400</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>AC375518</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>370443S</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>AC350507</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>AC390520</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>AC370135</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>370420S</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>370402S</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>375138A</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AC378720</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>378609S</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370437</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>AC337440</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AC378808</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>AC378729</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>372454A</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>370466C</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>370480A</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>339171A</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>370715S</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AC378149</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AC355201</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>370715A</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>AC376406</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC337480</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>AC387090</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>376482C</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>AC387002</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>AC350503</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337220</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>AC355105</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>370488T</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>378609R</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC380000</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>370711S</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>386001Z</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>370501.0</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>370712B</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>378609K</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>337419C</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>AC40014</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>AC686405</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>AC415100</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC356134</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>370488G</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>AC375004</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>AC619600</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>370465Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>AC419100</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>370419S</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC20113</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>AC372414</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>370423T</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>302211.0</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>AC375005</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370111</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>AC337451</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>339488A</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>AC356133</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>302213E</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>370426S</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>AC10213</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>370442S</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>AC378403</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370604</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>387042A</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>376425A</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>AC386042</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>AC339160</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390183</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>AC20189</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>AC390001</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>378453S</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>AC370420</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>AC370172</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AC378449</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>370423T</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>372417S</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>AC378403</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AC10213</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>376482C</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>AC378431</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>370488E</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>339486E</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>AC370000</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>AC388170</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>AC370401</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370402</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>370488H</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>AC390003</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>AC386902</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390004</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>AC337452</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>AC339956</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>AC710170</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>370504A</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370701</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>376467E</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>AC390550</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>AC378452</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AC376406</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AC370423</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>387042A</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AC372441</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>AC390520</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>AC372439</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AC378458</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>AC40016</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>AC393628</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>370504A</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>370712B</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>387070A</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>AC370000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>AC40014</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>AC415100</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>AC337480</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>AC410100</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>AC337440</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>372454A</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AC390001</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>AC337220</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>AC389102</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>AC378858</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>370737C</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>376467E</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>370488G</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>AC386041</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>370737S</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>AC386902</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>370421S</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>AC710170</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>AC390004</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>372440A</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>370828A</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>AC386001</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>370715A</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>330001B</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>386001Z</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>378609R</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>AC355201</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>AC410500</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC386002</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>AC10307</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>378453A</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>AC10113</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370606</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>370465Q</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>370420S</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>376487.0</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>389073.0</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>AC380077</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>AC378546</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>AC370424</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC411100</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>370401S</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>339988E</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>AC378607</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>376482S</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>370419S</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>370488H</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>376425A</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>AC614400</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>378216A</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>AC387070</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>AC370129</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>AC375075</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>AC370443</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>AC378431</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>377498A</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC610001</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>AC390183</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370416</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>337190C</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>370111S</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>AC339956</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>302213E</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>AC355105</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>AC10207</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>302211.0</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC375005</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>370480A</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>AC355401</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>AC390550</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>AC370135</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>370488J</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>AC355427</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>378609S</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>AC387001</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>AC413461</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>AC337452</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>AC413489</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>AC389190</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>AC356132</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>339995C</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>AC370420</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC379999</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>AC337105</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>339486E</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>AC378808</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>370402S</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>370442S</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370716</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>AC337441</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>AC356133</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>AC359999</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370401</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>AC372414</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>AC370419</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>370701S</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>AC378149</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>370715S</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>AC370415</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378729</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>AC380000</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>302282.0</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>378452S</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>AC20189</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>370711S</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>AC350503</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>AC387090</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>AC355409</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>370501.0</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>AC370403</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>370466C</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>AC612000</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>AC355111</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>376480A</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370442</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>AC390003</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>378858S</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>AC20113</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378720</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>AC40016</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>339099B</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>AC388130</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>370505A</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>AC709999</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>370737Z</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>377121S</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>370488T</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>370403S</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>AC613000</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>AC339160</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>370407.0</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>AC388170</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>AC350507</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>337419C</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370111</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>370488S</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370437</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>370407C</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>370489S</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>378453S</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370421</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>AC370116</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>AC372417</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>AC356134</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC10307</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>370707S</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>AC375518</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>AC686405</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>379000A</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>AC370440</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>AC375004</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370604</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>AC619600</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>AC337451</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>AC370711</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>376400.0</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>370488E</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>AC386042</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>375138A</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>339171A</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>370443S</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>370426S</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>AC387002</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>370401C</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>AC370701</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>375003A</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>378453A</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>378609K</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>AC710290</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>AC10107</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>AC370402</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>339488A</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>370136A</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="ED2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE2" s="2" t="n">
         <v>0</v>
@@ -2111,74 +2111,74 @@
         <v>0</v>
       </c>
       <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT3" s="2" t="n">
         <v>0</v>
       </c>
@@ -2444,130 +2444,130 @@
         <v>0</v>
       </c>
       <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT3" s="2" t="n">
         <v>0</v>
@@ -2709,74 +2709,74 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
         <v>1</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0</v>
@@ -3042,130 +3042,130 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
         <v>1</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
@@ -3313,74 +3313,74 @@
         <v>0</v>
       </c>
       <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT5" s="2" t="n">
         <v>0</v>
       </c>
@@ -3646,62 +3646,62 @@
         <v>0</v>
       </c>
       <c r="ED5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="EE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EW5" s="2" t="n">
         <v>0</v>
       </c>
@@ -3712,64 +3712,64 @@
         <v>0</v>
       </c>
       <c r="EZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="FA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT5" s="2" t="n">
         <v>0</v>
@@ -3911,74 +3911,74 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
         <v>1</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" t="n">
         <v>0</v>
@@ -4178,196 +4178,196 @@
         <v>0</v>
       </c>
       <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
         <v>1</v>
       </c>
-      <c r="DI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED6" t="n">
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="n">
         <v>1</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0</v>
       </c>
       <c r="FT6" t="n">
         <v>0</v>
@@ -4515,74 +4515,74 @@
         <v>0</v>
       </c>
       <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT7" s="2" t="n">
         <v>0</v>
       </c>
@@ -4797,181 +4797,181 @@
         <v>0</v>
       </c>
       <c r="DM7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="2" t="n">
+      <c r="EW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT7" s="2" t="n">
         <v>0</v>
@@ -5113,74 +5113,74 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
         <v>1</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
@@ -5260,11 +5260,11 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
         <v>1</v>
       </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
       <c r="BV8" t="n">
         <v>0</v>
       </c>
@@ -5395,181 +5395,181 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
         <v>1</v>
       </c>
-      <c r="DO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="n">
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
         <v>1</v>
       </c>
-      <c r="DS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED8" t="n">
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
         <v>1</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
       </c>
       <c r="FT8" t="n">
         <v>0</v>
@@ -5717,65 +5717,65 @@
         <v>0</v>
       </c>
       <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ9" s="2" t="n">
         <v>0</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2" t="n">
         <v>0</v>
@@ -5960,220 +5960,220 @@
         <v>0</v>
       </c>
       <c r="CZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="DN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="2" t="n">
+      <c r="EW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT9" s="2" t="n">
         <v>0</v>
@@ -6315,65 +6315,65 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
         <v>1</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -6558,221 +6558,221 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
         <v>1</v>
       </c>
-      <c r="DA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" t="n">
+      <c r="DN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
         <v>1</v>
       </c>
-      <c r="DM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN10" t="n">
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" t="n">
         <v>1</v>
       </c>
-      <c r="DO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED10" t="n">
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="n">
         <v>1</v>
       </c>
-      <c r="EE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
       <c r="FT10" t="n">
         <v>0</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ10" t="n">
         <v>0</v>
@@ -6919,74 +6919,74 @@
         <v>0</v>
       </c>
       <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT11" s="2" t="n">
         <v>0</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2" t="n">
         <v>0</v>
@@ -7162,220 +7162,220 @@
         <v>0</v>
       </c>
       <c r="CZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED11" s="2" t="n">
+      <c r="EW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT11" s="2" t="n">
         <v>0</v>
@@ -7463,212 +7463,212 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2" t="n">
+      <c r="AQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2" t="n">
+      <c r="AT12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BT12" s="2" t="n">
         <v>0</v>
       </c>
@@ -7766,152 +7766,152 @@
         <v>0</v>
       </c>
       <c r="CZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="DN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED12" s="2" t="n">
+      <c r="EP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="EE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EW12" s="2" t="n">
         <v>0</v>
       </c>
@@ -7922,64 +7922,64 @@
         <v>0</v>
       </c>
       <c r="EZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS12" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="FA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS12" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT12" s="2" t="n">
         <v>0</v>
